--- a/fsdata/팜스빌.xlsx
+++ b/fsdata/팜스빌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEABAA1-BADE-40D0-A6C5-8F5A3E20FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5F38EA-FF90-461E-B2BF-532719D679E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="1380" windowWidth="16710" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,24 @@
     <sheet name="Data_cf" sheetId="5" r:id="rId5"/>
     <sheet name="Labels_cf" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="438">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1333,6 +1345,10 @@
   </si>
   <si>
     <t>외화표시현금및현금성자산의환율변동효과</t>
+  </si>
+  <si>
+    <t>당기순이익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>당기순이익</t>
@@ -1750,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -4024,9 +4040,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -4553,7 +4576,7 @@
         <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>437</v>
       </c>
       <c r="D18" t="s">
         <v>243</v>
@@ -4900,6 +4923,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
